--- a/src/main/resources/excel/score_export.xlsx
+++ b/src/main/resources/excel/score_export.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">&lt;jt:forEach items="${labelList}" var="item" copyRight="true"&gt;${item}&lt;/jt:forEach&gt;	</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -28,12 +28,136 @@
     <t xml:space="preserve">&lt;jt:forEach items="${dataList}" var="item"&gt;&lt;jt:forEach items="${item}" var="single" copyRight="true"&gt;${single}&lt;/jt:forEach&gt;&lt;/jt:forEach&gt; </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Lantinghei TC Extralight"/>
+      </rPr>
+      <t>考</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Lantinghei SC Heavy"/>
+      </rPr>
+      <t>试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Lantinghei TC Extralight"/>
+      </rPr>
+      <t>名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Lantinghei SC Heavy"/>
+      </rPr>
+      <t>称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t xml:space="preserve">: ${examName}    </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Lantinghei TC Extralight"/>
+      </rPr>
+      <t>考</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Lantinghei SC Heavy"/>
+      </rPr>
+      <t>试时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Lantinghei TC Extralight"/>
+      </rPr>
+      <t>间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t xml:space="preserve">: ${examTime}    </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Lantinghei TC Extralight"/>
+      </rPr>
+      <t>代表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Lantinghei SC Heavy"/>
+      </rPr>
+      <t>单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Lantinghei TC Extralight"/>
+      </rPr>
+      <t>科排名少于总分排名（即相</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Lantinghei SC Heavy"/>
+      </rPr>
+      <t>对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Lantinghei TC Extralight"/>
+      </rPr>
+      <t>弱科）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -47,6 +171,16 @@
     <font>
       <sz val="9"/>
       <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Lantinghei TC Extralight"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Lantinghei SC Heavy"/>
     </font>
   </fonts>
   <fills count="3">
@@ -92,7 +226,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -101,6 +235,12 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -176,6 +316,11 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1284,29 +1429,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IT2"/>
+  <dimension ref="A1:IT5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="1" customWidth="1"/>
-    <col min="2" max="254" width="9.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="3" customWidth="1"/>
+    <col min="2" max="130" width="9.375" style="3" customWidth="1"/>
+    <col min="131" max="254" width="9.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="20" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" ht="15" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="20" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15" customHeight="1">
-      <c r="A2" s="1" t="s">
+    <row r="5" spans="1:5" ht="15" customHeight="1">
+      <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
